--- a/staff/data/product.xlsx
+++ b/staff/data/product.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\django\staff\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4D484A-8349-4A89-BD81-56DC70819BE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="29385" windowHeight="8070"/>
+    <workbookView xWindow="3945" yWindow="4260" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="유효성" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Product!$A$1:$AA$4</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LGD</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -31,7 +40,1208 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>필수</t>
+          <t>띄어쓰기 포함30글자까지 가능.
+숫자, 영어 대문자/소문자 가능
+(, ) 등의 특수기호는 되는것도 있고 안되는것도 있어서 문제 발생시 문의바람.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>브랜드이름이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아니면</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사이트에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>물품은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등록이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않음</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카테고리이름이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아니면</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사이트에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>물품은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등록이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않음</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당브랜드</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정식사이트에서의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>판매가격</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당브랜드</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정식사이트에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표기된</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모델명</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그림은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> url </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>링크주소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>혹은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위치</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>둘다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.
+Ex)
+https://xxx.com/1.jpg
+C:\</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그림</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>\1.jpg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>장문의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정보를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여기에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> https://www.youtube.com/embed/abcdefg </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이형태로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사이트에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>들어감</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주소안에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> /embed/ </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이게</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그냥</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유튜브</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사이트</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주소창을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>복붙하면</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> embed</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없으므로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>복붙후</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> embed</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넣어도됨</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
         </r>
       </text>
     </comment>
@@ -40,7 +1250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>상품관리용코드</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -102,204 +1312,360 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>유튜브링크</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>woman</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이탈리아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kids</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m12120021k122</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림4</t>
+  </si>
+  <si>
+    <t>그림5</t>
+  </si>
+  <si>
+    <t>그림6</t>
+  </si>
+  <si>
+    <t>그림7</t>
+  </si>
+  <si>
+    <t>그림8</t>
+  </si>
+  <si>
+    <t>그림9</t>
+  </si>
+  <si>
+    <t>메인이미지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600887605/636709_UA70G_1058_002_080_0000_Light--Ken-Scott-1961.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600887605/636709_UA70G_1058_003_080_0000_Light--Ken-Scott-1961.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600887605/636709_UA70G_1058_004_080_0000_Light--Ken-Scott-1961.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600887605/636709_UA70G_1058_006_080_0000_Light--Ken-Scott-1961.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600887605/636709_UA70G_1058_007_080_0000_Light--Ken-Scott-1961.jpg</t>
+  </si>
+  <si>
+    <t>켄 스캇(Ken Scott) 프린트 재키 1961 스몰 호보백</t>
+  </si>
+  <si>
+    <t>스타일 ‎636709 UA70G 1058</t>
+  </si>
+  <si>
     <t>정보</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>메인이미지(파일위치)</t>
+    <t>켄 스캇(Ken Scott)의 보태니컬 프린트가 생동감을 더하는 스몰 숄더백. 1960-70년대 밀란에 거주했던 미국 디자이너 켄 스캇(Ken Scott)은 화려한 플로라 디자인으로 다채로운 개성을 표현하며 '패션 정원사'라는 명성을 얻음. 재키 1961 숄더백을 완성하는 시그니처 골드 톤 메탈 장식. 다양하게 착용 및 스타일링할 수 있어 하우스의 모든 구성원을 포용하는 아이템.
+켄 스캇(Ken Scott) 아카이브에서 차용한 프린트
+제조자: 구찌
+제조국: 이태리
+수입자: 구찌코리아
+에필로그 컬렉션
+켄 스캇(Ken Scott) 플로라 프린트의 블랙 가죽, Ken Scott은 Mantero의 브랜드입니다.
+골드 톤 메탈 장식
+마이크로파이버 안감 및 스웨이드 방식 마감 처리
+해당 상품은 대체 메탈 또는 크롬 프리 태닝 처리한 가죽 소재로 제작되어, 기존 공정에 비해 환경에 미치는 영향을 줄입니다.
+내부: 오픈 포켓 1개, 지퍼 포켓 1개
+이 스타일은 버클 잠금장치로 핸드백에 부착할 수 있는 추가 스트랩을 구매할 수 있음
+핸들: 중앙 홀에서부터 18cm 드롭, 추가 숄더 스트랩: 중앙 홀에서부터 52cm 드롭
+피스톤 스트랩 잠금장치
+스몰 사이즈: 가로 27.5cm x 세로 19cm x 너비 4cm
+무게: 0.45kg
+모델169cm
+품질보증기준: A/S 보증기간 2년 (상품 이상 시 무상수선, 고객의 부주의로 판단되는 경우 유상수선)
+AS 유선접수: 클라이언트서비스센터 02-3452-1921 / 이메일접수: 클라이언트서비스센터 clientservice.kr@gucci.com</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>유튜브링크</t>
+    <t>재키 1961 스몰 호보백</t>
+  </si>
+  <si>
+    <t>스타일 ‎636709 10O0G 5815</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600340403/636709_10O0G_5815_006_080_0000_Light--1961.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600340403/636709_10O0G_5815_007_080_0000_Light--1961.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600340403/636709_10O0G_5815_008_080_0000_Light--1961.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1595345404/636709_10O0G_5815_011_100_0000_Light--1961.jpg</t>
+  </si>
+  <si>
+    <t>라이트 핑크 가죽 소재의 독특한 모양과 탈착이 가능한 숄더 스트랩으로 관심을 받으며 복귀한 아이템. 버클 잠금장치로 탈부착이 가능한 추가 세컨드 스트랩. 아카이브 스타일에 현대적 감성을 더하고 탑핸들, 숄더백부터 크로스바디 스타일까지 여러 방식으로 착용 가능한 스타일. 구찌 공식 온라인 스토어에서 재키 1961을 단독으로 만나보세요
+2020 가을 겨울 컬렉션
+제조자: 구찌
+제조국: 이태리
+수입자: 구찌코리아
+에필로그 컬렉션
+구찌의 역사적인 아이콘을 2020 가을 겨울 시즌을 맞아 새롭게 해석한 재키 1961 백. 재클린 케네디 오나시스에 경의를 표하며 1958년 첫 선을 보인 디자인의 인기와 유행은 1960년대 전반적으로 지속됨. 핑크 가죽 소재로 전면에 보이는 쉐입은 탈착 가능한 숄더 스트랩이 특징. 버클 잠금장치로 백에 부착가능한 세컨드 스트랩은 탑 핸들 쉐입을 숄더 크로스 바디로 착용할 수 있게 만들어 아카이브 스타일에 현대적인 감각을 더함.
+골드 톤 메탈 장식
+마이크로파이버 안감 및 스웨이드 방식 마감 처리
+이 상품은 대체 메탈 프리 또는 크롬 프리 태닝을 사용한 가죽 소재로, 기존 기법에 비해 환경에 미치는 영향을 줄입니다.
+내부: 오픈 포켓 1개, 지퍼 포켓 1개
+이 스타일은 버클 잠금장치로 핸드백에 부착할 수 있는 추가 스트랩을 구매할 수 있음
+핸들: 중앙 홀에서부터 18cm 드롭, 추가 숄더 스트랩: 중앙 홀에서부터 52cm 드롭
+피스톤 스트랩 잠금장치
+스몰 사이즈: 가로 27.5cm x 세로 19cm x 너비 4cm
+무게: 0.45kg
+모델의 신장은 175cm 입니다
+품질보증기준: A/S 보증기간 2년 (상품 이상 시 무상수선, 고객의 부주의로 판단되는 경우 유상수선)
+AS 유선접수: 클라이언트서비스센터 02-3452-1921 / 이메일접수: 클라이언트서비스센터 clientservice.kr@gucci.com</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>192ek12j2j22k1020</t>
+    <t>더블 G 웹(Web) 디테일의 가죽 로퍼</t>
+  </si>
+  <si>
+    <t>스타일 ‎428609 D3VN0 1060</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1576868406/428609_D3VN0_1060_001_100_0000_Light--G-Web.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1576868406/428609_D3VN0_1060_002_100_0000_Light--G-Web.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1576868407/428609_D3VN0_1060_003_100_0000_Light--G-Web.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1576868407/428609_D3VN0_1060_004_100_0000_Light--G-Web.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1576868407/428609_D3VN0_1060_008_100_0000_Light--G-Web.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스타일 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>428609 D3VN0 1060
+심플한 디자인의 가죽 로퍼. 슬림한 토, web 스트랩 및 시그니처 더블 G 메탈 장식. 1950년대 클래식 디자인이 첫 선을 보인 이후 새로운 형태와 소재를 활용하여 현대적인 감성을 더한 슈즈로 거듭나고 있는 프레피 스타일의 로퍼.
+2018 캐리오버 컬렉션
+제조자: 구찌
+제조국: 이태리
+수입자: 구찌코리아
+블랙 가죽 및 그린/레드/그린 web 디테일
+주소재: 가죽
+더블 G 메탈 디테일
+레더 솔
+15mm 힐
+Made in Italy
+품질보증기준: A/S 보증기간 2년 (상품 이상 시 무상수선, 고객의 부주의로 판단되는 경우 유상수선)
+AS 유선접수: 클라이언트서비스 02-3452-1921 / clientservice.kr@gucci.com</t>
+    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\Administrator\Pictures\멀티업로드이미지용\3.jpg</t>
+    <t>https://www.youtube.com/watch?v=AXkI6I_Lcm4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJViVbW5i8c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8IxJ1A-vozY</t>
+  </si>
+  <si>
+    <t>2121k21ok12oko1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=11X2qnHCtOY</t>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600887604/636709_UA70G_1058_001_080_0000_Light--Ken-Scott-1961.jpg</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>이 가방은 엄청 좋은 가방이고 또한 매우좋은 가방이다.
-하지만 그럼에도 불구하고 많은 사람들이 못쓰는것에 안타까움을 느낀다.</t>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600341308/636709_10O0G_5815_004_080_0000_Light--1961.jpg</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>좋은가방</t>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_1200x1200/1576868407/428609_D3VN0_1060_005_100_0000_Light--G-Web.jpg</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>o0012ie021i0e21</t>
+    <t>2skksmdmaasdsasad</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>kmdsa9029191</t>
+    <t>Alexander Mcqueen</t>
+  </si>
+  <si>
+    <t>Balenciaga</t>
+  </si>
+  <si>
+    <t>BOTTEGAVENETA</t>
+  </si>
+  <si>
+    <t>Burberry</t>
+  </si>
+  <si>
+    <t>Celine</t>
+  </si>
+  <si>
+    <t>Chanel</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Dior</t>
+  </si>
+  <si>
+    <t>DSQUARED2</t>
+  </si>
+  <si>
+    <t>Emporio Armani</t>
+  </si>
+  <si>
+    <t>Fendi</t>
+  </si>
+  <si>
+    <t>Ferragamo</t>
+  </si>
+  <si>
+    <t>GIVENCHY</t>
+  </si>
+  <si>
+    <t>Golden Goose</t>
+  </si>
+  <si>
+    <t>Gucci</t>
+  </si>
+  <si>
+    <t>Kenzo</t>
+  </si>
+  <si>
+    <t>Louis Vuitton</t>
+  </si>
+  <si>
+    <t>MARNI</t>
+  </si>
+  <si>
+    <t>MONCLER</t>
+  </si>
+  <si>
+    <t>MSGM</t>
+  </si>
+  <si>
+    <t>Moose Knuckles</t>
+  </si>
+  <si>
+    <t>Parajumpers</t>
+  </si>
+  <si>
+    <t>Prada</t>
+  </si>
+  <si>
+    <t>Stone Island</t>
+  </si>
+  <si>
+    <t>THOM BROWNE</t>
+  </si>
+  <si>
+    <t>Tod's</t>
+  </si>
+  <si>
+    <t>VALENTINO</t>
+  </si>
+  <si>
+    <t>YSL</t>
+  </si>
+  <si>
+    <t>Gucci</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>asfu993191i</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>feao0139f</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fewfewafewa</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>193iekdkkd</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>랄다다다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>개좋은가방</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>초좋은가방</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>에브리가발</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>소소</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>가가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지지</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>키키</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>프라다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>woman</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이탈리아</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSMD SAKDKSA-asSA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lkmaaa</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>oiuytfvbnm</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>uajcc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kqqkw</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jwqj13</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3roi02ik</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>oijpa</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>택배</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Pictures\멀티업로드이미지용\1.jpg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Pictures\멀티업로드이미지용\2.jpg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Pictures\멀티업로드이미지용\4.jpg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Pictures\멀티업로드이미지용\5.jpg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>안경</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>가방</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>의류</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>신발</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>man</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>shoes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>bag</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kids</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,13 +1835,18 @@
       <charset val="129"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="36">
@@ -808,7 +2179,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,11 +2306,8 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,14 +2329,17 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="42" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1011,13 +2382,15 @@
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="42" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1066,7 +2439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1099,9 +2472,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1134,6 +2524,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1309,34 +2716,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.375" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="59.875" customWidth="1"/>
-    <col min="18" max="18" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="4.375" customWidth="1"/>
+    <col min="6" max="6" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="19" max="25" width="12.75" customWidth="1"/>
+    <col min="26" max="26" width="9.875" customWidth="1"/>
+    <col min="27" max="27" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1362,191 +2765,255 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="5">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="E3" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="E4" s="5">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="N4" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="5">
-        <v>40000</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -1555,35 +3022,26 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5">
-        <v>50000</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="6"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1593,35 +3051,26 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="5">
-        <v>60000</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1631,35 +3080,26 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="5">
-        <v>70000</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1669,35 +3109,26 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="5">
-        <v>80000</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -1707,27 +3138,2693 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="6"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="6"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="6"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="6"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="6"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="6"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="6"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="6"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="6"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="6"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="6"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="6"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="6"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="6"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="6"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="6"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="6"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="6"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="6"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="6"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="6"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="6"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="6"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="6"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="6"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="6"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="6"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="6"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="6"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="6"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="6"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="6"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="6"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="6"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="6"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="6"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="6"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="6"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="6"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="6"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="6"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="6"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="6"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="6"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="6"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="6"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="6"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="6"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="6"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="6"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="6"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="6"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="6"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="6"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="6"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="6"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="6"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="6"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="6"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="6"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="6"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="6"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="6"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="6"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="6"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="6"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="6"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="6"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="6"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="8"/>
+      <c r="AA81" s="6"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="8"/>
+      <c r="AA82" s="6"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="8"/>
+      <c r="AA83" s="6"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="8"/>
+      <c r="AA84" s="6"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="8"/>
+      <c r="AA85" s="6"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="6"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="6"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="6"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="6"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="6"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="6"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="6"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="6"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="8"/>
+      <c r="AA94" s="6"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="8"/>
+      <c r="AA95" s="6"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
+      <c r="Z96" s="8"/>
+      <c r="AA96" s="6"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="8"/>
+      <c r="AA97" s="6"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+      <c r="Y98" s="6"/>
+      <c r="Z98" s="8"/>
+      <c r="AA98" s="6"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+      <c r="Y99" s="6"/>
+      <c r="Z99" s="8"/>
+      <c r="AA99" s="6"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="8"/>
+      <c r="AA100" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="802" yWindow="359" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="브랜드이름이 잘못되었습니다." promptTitle="브랜드이름은 지정되어있습니다. " prompt="아래쪽 유효성 시트에 있는 브랜드이름(대문자,소문자, 공백포함까지 맞아야함.)이 없으면 입력할 수 없습니다. _x000a_옳바른 브랜드이름은 복붙이 가능합니다." xr:uid="{2E439DC7-096A-48AE-9A4B-51E8EBDFBA64}">
+          <x14:formula1>
+            <xm:f>유효성!$A$2:$A$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="카테고리가 옳바르지 않습니다." error="목록에 있는것만 선택하세요" promptTitle="카테고리를 옳바르게 입력바랍니다." prompt="브랜드와 마찬가지로 카테고리도 아래 유효성 시트의 목록에 있는것만 선택가능합니다. _x000a_옳바르면 복붙 가능합니다." xr:uid="{D22D0401-A16E-4238-A79B-8BC615FF437E}">
+          <x14:formula1>
+            <xm:f>유효성!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D100</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1738,67 +5835,162 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s">
-        <v>40</v>
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
-        <v>59</v>
+      <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>60</v>
+      <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>38</v>
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>61</v>
+      <c r="A6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>62</v>
+      <c r="A7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/staff/data/product.xlsx
+++ b/staff/data/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\django\staff\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4D484A-8349-4A89-BD81-56DC70819BE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D71231-4AED-4A92-B250-6392D64AD2AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="4260" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4605" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="2" r:id="rId1"/>
@@ -1250,7 +1250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>상품관리용코드</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1538,15 +1538,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=AXkI6I_Lcm4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJViVbW5i8c</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8IxJ1A-vozY</t>
-  </si>
-  <si>
     <t>2121k21ok12oko1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1659,6 +1650,9 @@
   </si>
   <si>
     <t>bag</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/cfcnQMzBKb0</t>
   </si>
 </sst>
 </file>
@@ -2719,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2824,13 +2818,13 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>25</v>
@@ -2848,7 +2842,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>36</v>
@@ -2880,7 +2874,7 @@
         <v>44</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
@@ -2891,10 +2885,10 @@
         <v>45</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E3" s="5">
         <v>5000</v>
@@ -2909,7 +2903,7 @@
         <v>19</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>47</v>
@@ -2939,21 +2933,21 @@
         <v>51</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E4" s="5">
         <v>6000</v>
@@ -2968,7 +2962,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>54</v>
@@ -3000,7 +2994,7 @@
         <v>59</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -5836,7 +5830,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -5844,7 +5838,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>20</v>
@@ -5852,7 +5846,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -5860,7 +5854,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -5868,7 +5862,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
@@ -5876,7 +5870,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -5884,112 +5878,112 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/staff/data/product.xlsx
+++ b/staff/data/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\django\staff\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D71231-4AED-4A92-B250-6392D64AD2AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495387BD-A8BB-4127-A91D-D4077705B6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4605" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Product!$A$1:$AA$4</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1250,7 +1250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
   <si>
     <t>상품관리용코드</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1403,9 +1403,6 @@
   </si>
   <si>
     <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600887605/636709_UA70G_1058_007_080_0000_Light--Ken-Scott-1961.jpg</t>
-  </si>
-  <si>
-    <t>켄 스캇(Ken Scott) 프린트 재키 1961 스몰 호보백</t>
   </si>
   <si>
     <t>스타일 ‎636709 UA70G 1058</t>
@@ -1475,9 +1472,6 @@
 품질보증기준: A/S 보증기간 2년 (상품 이상 시 무상수선, 고객의 부주의로 판단되는 경우 유상수선)
 AS 유선접수: 클라이언트서비스센터 02-3452-1921 / 이메일접수: 클라이언트서비스센터 clientservice.kr@gucci.com</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>더블 G 웹(Web) 디테일의 가죽 로퍼</t>
   </si>
   <si>
     <t>스타일 ‎428609 D3VN0 1060</t>
@@ -1653,6 +1647,228 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/cfcnQMzBKb0</t>
+  </si>
+  <si>
+    <t>켄 스캇(Ken Scott) 프린트 재키 1961 스몰 호보백</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블 G 웹(Web) 디테일의 가죽 로퍼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>켄 스캇(Ken Scott) 프린트 비스코스 드레스</t>
+  </si>
+  <si>
+    <t>wqasdffsad</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <r>
+      <t>스타일 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>648924 ZJP27 1061</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1604079907/648924_ZJP27_1061_001_100_0000_Light--Ken-Scott.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1604079908/648924_ZJP27_1061_004_100_0000_Light--Ken-Scott.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1604079908/648924_ZJP27_1061_005_100_0000_Light--Ken-Scott.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1604079908/648924_ZJP27_1061_010_100_0000_Light--Ken-Scott.jpg</t>
+  </si>
+  <si>
+    <t>구찌 라벨 에코 캐시미어 코트</t>
+  </si>
+  <si>
+    <t>zzxccxz</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>스타일 ‎618695 Z5311 4440</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1603733405/618695_Z5311_4440_001_100_0000_Light-.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1603733405/618695_Z5311_4440_004_100_0000_Light-.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1603733405/618695_Z5311_4440_005_100_0000_Light-.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1603733406/618695_Z5311_4440_012_100_0000_Light-.jpg</t>
+  </si>
+  <si>
+    <t>다이아몬드 장식 구찌 플로라 18K 목걸이</t>
+  </si>
+  <si>
+    <t>aqwqd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타일 ‎581842 J8568 9066</t>
+  </si>
+  <si>
+    <t>이탈리아 출신의 아티스트 비토리오 아코르네로(Vittorio Accornero)가 처음 디자인하여 1960년대에 그레이스 켈리 모나코 왕비의 스카프에 선보였던 플로라 프린트. 프린트의 여성스러움과 매력을 고스란히 담은 주얼리 컬렉션. 다이아몬드 장식 꽃과 GG 디테일이 짝을 이루는 목걸이, 세컨드 플라워 참으로 마감한 클래스프 잠금장치.</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1587555904/581842_J8568_9066_001_100_0000_Light--18K.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_1200x1200/1587054603/581842_J8568_9066_008_100_0000_Light--18K.jpg</t>
+  </si>
+  <si>
+    <t>그립 시계, 38mm</t>
+  </si>
+  <si>
+    <t>21ew1dwads</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타일 ‎596509 I8600 8740</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1567584905/596509_I8600_8740_001_100_0000_Light--38mm.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1567584905/596509_I8600_8740_002_100_0000_Light--38mm.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1567584906/596509_I8600_8740_003_100_0000_Light--38mm.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1564145106/596509_I8600_8740_009_100_0000_Light--38mm.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600892105/643619_DTNB0_1063_001_100_0000_Light-.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_1200x1200/1601055004/643619_DTNB0_1063_006_100_0000_Light-.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600892106/643619_DTNB0_1063_002_100_0000_Light-.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600892106/643619_DTNB0_1063_004_100_0000_Light-.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1600892106/643619_DTNB0_1063_005_100_0000_Light-.jpg</t>
+  </si>
+  <si>
+    <t>남성 앵클 부츠</t>
+  </si>
+  <si>
+    <t>스타일 ‎643619 DTNB0 1063</t>
+  </si>
+  <si>
+    <t>가죽 소재의 남성 앵클 부츠. 캐주얼 러그 솔과 그린/레드 웹(Web) 엘라스틱 풀 디테일이 뒷면을 장식. 기존의 전통적인 패션 규칙을 뒤집는 에필로그 컬렉션. 패션 아이템은 시즌을 뛰어넘어 언제든 착용할 수 있어야 한다는 생각을 전달함.</t>
+  </si>
+  <si>
+    <t>aacxcacaxq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1607539544/660161_2YMAG_8695_001_080_0000_Light-KAI-x-Gucci.jpg</t>
+  </si>
+  <si>
+    <t>KAI x Gucci 미니 백</t>
+  </si>
+  <si>
+    <t>스타일 ‎660161 2YMAG 8695</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1607539545/660161_2YMAG_8695_002_080_0000_Light-KAI-x-Gucci.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_1200x1200/1616694307/660161_2YMAG_8695_005_100_0000_Light-KAI-x-Gucci.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gucci.com/style/DarkGray_Center_0_0_800x800/1607539547/660161_2YMAG_8695_004_080_0000_Light-KAI-x-Gucci.jpg</t>
+  </si>
+  <si>
+    <t>케이팝 가수, 퍼포머이자 배우인 카이에게서 영감을 얻은, 레디-투-웨어 및 패션소품 컬렉션을 선보입니다. 카이가 특별하게 여기는 테디 베어를 통해 대중 문화와 빈티지 감성이 조화를 이루며 재치 있는 디자인이 탄생하였습니다. 해당 미니 숄더백은 스페셜 컬렉션으로 선보입니다.</t>
+  </si>
+  <si>
+    <t>7t9hwjiowfpw</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>asdassccczxcxz</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘 스트라이프 코튼 플레이수트</t>
+  </si>
+  <si>
+    <t>CB014R852-8011</t>
+  </si>
+  <si>
+    <t>https://assets.burberry.com/is/image/Burberryltd/D2860CA8-66D0-44C4-A67C-98DF1CFBB6CD.jpg?$BBY_V2_SL_1x1$&amp;wid=1251&amp;hei=1251</t>
+  </si>
+  <si>
+    <t>https://assets.burberry.com/is/image/Burberryltd/8947D07E-4E71-4862-9115-625236C4D5DC.jpg?$BBY_V2_SL_1x1$&amp;wid=1500&amp;hei=1500</t>
+  </si>
+  <si>
+    <t>https://assets.burberry.com/is/image/Burberryltd/2390BE00-5B14-4CCF-A297-FE355F2CC90F.jpg?$BBY_V2_SL_1x1$&amp;wid=1500&amp;hei=1500</t>
+  </si>
+  <si>
+    <t>https://assets.burberry.com/is/image/Burberryltd/97ADBA4A-2E47-414E-94BE-D1597F603399.jpg?$BBY_V2_SL_1x1$&amp;wid=1500&amp;hei=1500</t>
+  </si>
+  <si>
+    <t>https://assets.burberry.com/is/image/Burberryltd/61E8F1DF-DBAE-4DD4-A5E5-0F949836A46B.jpg?$BBY_V2_SL_1x1$&amp;wid=1500&amp;hei=1500</t>
+  </si>
+  <si>
+    <t>버버리 아이콘 스트라이프가 돋보이는 면 소재의 플레이수트. 단추 및 스냅 단추가 있어 탈착용이 간편합니다.
+면 100%
+트리밍: 면 97%, 엘라스테인 3%
+단추 여밈 플래킷, 스냅 단추 거싯
+물세탁 가능
+수입품
+품목 80365961
+CB014R852-8011</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2713,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2810,7 +3026,7 @@
         <v>14</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>15</v>
@@ -2818,31 +3034,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="5">
-        <v>4000</v>
+        <v>3300000</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>36</v>
@@ -2871,10 +3087,10 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
@@ -2882,40 +3098,40 @@
         <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="5">
-        <v>5000</v>
+        <v>3300000</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -2930,54 +3146,54 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" s="5">
-        <v>6000</v>
+        <v>1040000</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -2991,25 +3207,49 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="A5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3500000</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -3027,18 +3267,42 @@
       <c r="AA5" s="6"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="A6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5500000</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -3056,16 +3320,36 @@
       <c r="AA6" s="6"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
+      <c r="A7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -3081,22 +3365,48 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="8"/>
+      <c r="Z7" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="AA7" s="6"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="A8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2508000</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -3114,19 +3424,45 @@
       <c r="AA8" s="6"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="A9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1290000</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -3139,23 +3475,51 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
-      <c r="Z9" s="8"/>
+      <c r="Z9" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="AA9" s="6"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="A10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1300000</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -3168,23 +3532,51 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
-      <c r="Z10" s="8"/>
+      <c r="Z10" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="AA10" s="6"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="A11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="5">
+        <v>300000</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -3197,7 +3589,9 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
-      <c r="Z11" s="8"/>
+      <c r="Z11" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="AA11" s="6"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
@@ -3378,7 +3772,6 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -5788,7 +6181,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="802" yWindow="359" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="958" yWindow="482" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="브랜드이름이 잘못되었습니다." promptTitle="브랜드이름은 지정되어있습니다. " prompt="아래쪽 유효성 시트에 있는 브랜드이름(대문자,소문자, 공백포함까지 맞아야함.)이 없으면 입력할 수 없습니다. _x000a_옳바른 브랜드이름은 복붙이 가능합니다." xr:uid="{2E439DC7-096A-48AE-9A4B-51E8EBDFBA64}">
           <x14:formula1>
             <xm:f>유효성!$A$2:$A$29</xm:f>
@@ -5799,7 +6192,7 @@
           <x14:formula1>
             <xm:f>유효성!$B$2:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D100</xm:sqref>
+          <xm:sqref>D2:D17 D19:D100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5830,7 +6223,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -5838,7 +6231,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>20</v>
@@ -5846,7 +6239,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -5854,7 +6247,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -5862,7 +6255,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
@@ -5870,7 +6263,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -5878,112 +6271,112 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/staff/data/product.xlsx
+++ b/staff/data/product.xlsx
@@ -1,35 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\django\staff\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D71231-4AED-4A92-B250-6392D64AD2AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4605" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4605" windowWidth="28800" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="2" r:id="rId1"/>
     <sheet name="유효성" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Product!$A$1:$AA$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Product!$A$1:$AB$4</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LGD</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -489,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -567,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -742,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -830,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="98">
   <si>
     <t>상품관리용코드</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1654,11 +1648,15 @@
   <si>
     <t>https://www.youtube.com/embed/cfcnQMzBKb0</t>
   </si>
+  <si>
+    <t>합배송</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2433,7 +2431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2466,26 +2464,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2518,23 +2499,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2710,11 +2674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB100"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2727,13 +2691,14 @@
     <col min="6" max="6" width="4.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="19" max="25" width="12.75" customWidth="1"/>
-    <col min="26" max="26" width="9.875" customWidth="1"/>
-    <col min="27" max="27" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="20" max="26" width="12.75" customWidth="1"/>
+    <col min="27" max="27" width="9.875" customWidth="1"/>
+    <col min="28" max="28" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2759,64 +2724,67 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>64</v>
       </c>
@@ -2841,25 +2809,25 @@
       <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -2870,14 +2838,15 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
@@ -2902,22 +2871,22 @@
       <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -2929,14 +2898,15 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>60</v>
       </c>
@@ -2961,25 +2931,25 @@
       <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
@@ -2990,14 +2960,15 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3007,7 +2978,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -3023,10 +2994,11 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="6"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="6"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3036,7 +3008,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -3052,10 +3024,11 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="6"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="6"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3065,7 +3038,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -3081,10 +3054,11 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="6"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="6"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3094,7 +3068,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -3110,10 +3084,11 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="6"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="6"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3123,7 +3098,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -3139,10 +3114,11 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="6"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="6"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3152,7 +3128,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -3168,10 +3144,11 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="6"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="6"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3181,7 +3158,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -3197,10 +3174,11 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="6"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="6"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3210,7 +3188,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -3226,10 +3204,11 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="6"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="6"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3239,7 +3218,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -3255,10 +3234,11 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="6"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="6"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3268,7 +3248,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -3284,10 +3264,11 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="6"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="6"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3297,7 +3278,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -3313,10 +3294,11 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="6"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3326,7 +3308,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -3342,10 +3324,11 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="6"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="6"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3355,7 +3338,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -3371,10 +3354,11 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="6"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="6"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3384,7 +3368,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -3400,10 +3384,11 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="6"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3413,7 +3398,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -3429,10 +3414,11 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="6"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="6"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -3442,7 +3428,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -3458,10 +3444,11 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="6"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="6"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3471,7 +3458,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -3487,10 +3474,11 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="6"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="6"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3500,7 +3488,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -3516,10 +3504,11 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="6"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="6"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3529,7 +3518,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -3545,10 +3534,11 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="6"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="6"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3558,7 +3548,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -3574,10 +3564,11 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="6"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="6"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3587,7 +3578,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -3603,10 +3594,11 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="6"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="6"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3616,7 +3608,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -3632,10 +3624,11 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="6"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="6"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3645,7 +3638,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -3661,10 +3654,11 @@
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="6"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="6"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3674,7 +3668,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3690,10 +3684,11 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="6"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="6"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3703,7 +3698,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -3719,10 +3714,11 @@
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="6"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="6"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3732,7 +3728,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -3748,10 +3744,11 @@
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="6"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="6"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3761,7 +3758,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -3777,10 +3774,11 @@
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="6"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="6"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3790,7 +3788,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -3806,10 +3804,11 @@
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="6"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="6"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3819,7 +3818,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="6"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
@@ -3835,10 +3834,11 @@
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="6"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="6"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -3848,7 +3848,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -3864,10 +3864,11 @@
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="6"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="6"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3877,7 +3878,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -3893,10 +3894,11 @@
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="6"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="6"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3906,7 +3908,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -3922,10 +3924,11 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="6"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="6"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3935,7 +3938,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -3951,10 +3954,11 @@
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="6"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="6"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3964,7 +3968,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -3980,10 +3984,11 @@
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="6"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="6"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3993,7 +3998,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
@@ -4009,10 +4014,11 @@
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="6"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="6"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4022,7 +4028,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="6"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
@@ -4038,10 +4044,11 @@
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="6"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="6"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4051,7 +4058,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -4067,10 +4074,11 @@
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="6"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="6"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4080,7 +4088,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="6"/>
+      <c r="J42" s="5"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -4096,10 +4104,11 @@
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="6"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="6"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4109,7 +4118,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="6"/>
+      <c r="J43" s="5"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -4125,10 +4134,11 @@
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="6"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="6"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4138,7 +4148,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="6"/>
+      <c r="J44" s="5"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -4154,10 +4164,11 @@
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="6"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="6"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4167,7 +4178,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="6"/>
+      <c r="J45" s="5"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -4183,10 +4194,11 @@
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="6"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="6"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4196,7 +4208,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="6"/>
+      <c r="J46" s="5"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -4212,10 +4224,11 @@
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="6"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="6"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4225,7 +4238,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="6"/>
+      <c r="J47" s="5"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
@@ -4241,10 +4254,11 @@
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="6"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="6"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4254,7 +4268,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="6"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -4270,10 +4284,11 @@
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="6"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="6"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4283,7 +4298,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="6"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -4299,10 +4314,11 @@
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="6"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="6"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4312,7 +4328,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="6"/>
+      <c r="J50" s="5"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -4328,10 +4344,11 @@
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="6"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="6"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4341,7 +4358,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="6"/>
+      <c r="J51" s="5"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -4357,10 +4374,11 @@
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="6"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="6"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4370,7 +4388,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="6"/>
+      <c r="J52" s="5"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -4386,10 +4404,11 @@
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="6"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="6"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4399,7 +4418,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="6"/>
+      <c r="J53" s="5"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -4415,10 +4434,11 @@
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="6"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="6"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4428,7 +4448,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="6"/>
+      <c r="J54" s="5"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -4444,10 +4464,11 @@
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="6"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="6"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4457,7 +4478,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="6"/>
+      <c r="J55" s="5"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
@@ -4473,10 +4494,11 @@
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="6"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="6"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4486,7 +4508,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="6"/>
+      <c r="J56" s="5"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
@@ -4502,10 +4524,11 @@
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="6"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="6"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4515,7 +4538,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="6"/>
+      <c r="J57" s="5"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -4531,10 +4554,11 @@
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="6"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="6"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4544,7 +4568,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="6"/>
+      <c r="J58" s="5"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -4560,10 +4584,11 @@
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
-      <c r="Z58" s="8"/>
-      <c r="AA58" s="6"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="6"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -4573,7 +4598,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="6"/>
+      <c r="J59" s="5"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
@@ -4589,10 +4614,11 @@
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
-      <c r="Z59" s="8"/>
-      <c r="AA59" s="6"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="6"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -4602,7 +4628,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="6"/>
+      <c r="J60" s="5"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
@@ -4618,10 +4644,11 @@
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
       <c r="Y60" s="6"/>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="6"/>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="6"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -4631,7 +4658,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="6"/>
+      <c r="J61" s="5"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
@@ -4647,10 +4674,11 @@
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
-      <c r="Z61" s="8"/>
-      <c r="AA61" s="6"/>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="6"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4660,7 +4688,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="6"/>
+      <c r="J62" s="5"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
@@ -4676,10 +4704,11 @@
       <c r="W62" s="6"/>
       <c r="X62" s="6"/>
       <c r="Y62" s="6"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="6"/>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="6"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -4689,7 +4718,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="6"/>
+      <c r="J63" s="5"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -4705,10 +4734,11 @@
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
-      <c r="Z63" s="8"/>
-      <c r="AA63" s="6"/>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="6"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -4718,7 +4748,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="6"/>
+      <c r="J64" s="5"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -4734,10 +4764,11 @@
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
       <c r="Y64" s="6"/>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="6"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="6"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -4747,7 +4778,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="6"/>
+      <c r="J65" s="5"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
@@ -4763,10 +4794,11 @@
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
-      <c r="Z65" s="8"/>
-      <c r="AA65" s="6"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="6"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4776,7 +4808,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="6"/>
+      <c r="J66" s="5"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -4792,10 +4824,11 @@
       <c r="W66" s="6"/>
       <c r="X66" s="6"/>
       <c r="Y66" s="6"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="6"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="6"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -4805,7 +4838,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="6"/>
+      <c r="J67" s="5"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
@@ -4821,10 +4854,11 @@
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
-      <c r="Z67" s="8"/>
-      <c r="AA67" s="6"/>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="6"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -4834,7 +4868,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="6"/>
+      <c r="J68" s="5"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
@@ -4850,10 +4884,11 @@
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
-      <c r="Z68" s="8"/>
-      <c r="AA68" s="6"/>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="6"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -4863,7 +4898,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="6"/>
+      <c r="J69" s="5"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -4879,10 +4914,11 @@
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
-      <c r="Z69" s="8"/>
-      <c r="AA69" s="6"/>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="6"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -4892,7 +4928,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="6"/>
+      <c r="J70" s="5"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -4908,10 +4944,11 @@
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
-      <c r="Z70" s="8"/>
-      <c r="AA70" s="6"/>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z70" s="6"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="6"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -4921,7 +4958,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="6"/>
+      <c r="J71" s="5"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -4937,10 +4974,11 @@
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
-      <c r="Z71" s="8"/>
-      <c r="AA71" s="6"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="6"/>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -4950,7 +4988,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-      <c r="J72" s="6"/>
+      <c r="J72" s="5"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
@@ -4966,10 +5004,11 @@
       <c r="W72" s="6"/>
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
-      <c r="Z72" s="8"/>
-      <c r="AA72" s="6"/>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z72" s="6"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="6"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -4979,7 +5018,7 @@
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
-      <c r="J73" s="6"/>
+      <c r="J73" s="5"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
@@ -4995,10 +5034,11 @@
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
-      <c r="Z73" s="8"/>
-      <c r="AA73" s="6"/>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="6"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -5008,7 +5048,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="6"/>
+      <c r="J74" s="5"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
@@ -5024,10 +5064,11 @@
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
-      <c r="Z74" s="8"/>
-      <c r="AA74" s="6"/>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="6"/>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -5037,7 +5078,7 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="6"/>
+      <c r="J75" s="5"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
@@ -5053,10 +5094,11 @@
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="6"/>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="6"/>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -5066,7 +5108,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="6"/>
+      <c r="J76" s="5"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
@@ -5082,10 +5124,11 @@
       <c r="W76" s="6"/>
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
-      <c r="Z76" s="8"/>
-      <c r="AA76" s="6"/>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="8"/>
+      <c r="AB76" s="6"/>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -5095,7 +5138,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-      <c r="J77" s="6"/>
+      <c r="J77" s="5"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -5111,10 +5154,11 @@
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
-      <c r="Z77" s="8"/>
-      <c r="AA77" s="6"/>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="8"/>
+      <c r="AB77" s="6"/>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -5124,7 +5168,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="6"/>
+      <c r="J78" s="5"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
@@ -5140,10 +5184,11 @@
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
-      <c r="Z78" s="8"/>
-      <c r="AA78" s="6"/>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="6"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -5153,7 +5198,7 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
-      <c r="J79" s="6"/>
+      <c r="J79" s="5"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
@@ -5169,10 +5214,11 @@
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
-      <c r="Z79" s="8"/>
-      <c r="AA79" s="6"/>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="8"/>
+      <c r="AB79" s="6"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -5182,7 +5228,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
-      <c r="J80" s="6"/>
+      <c r="J80" s="5"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
@@ -5198,10 +5244,11 @@
       <c r="W80" s="6"/>
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
-      <c r="Z80" s="8"/>
-      <c r="AA80" s="6"/>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="8"/>
+      <c r="AB80" s="6"/>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -5211,7 +5258,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="6"/>
+      <c r="J81" s="5"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
@@ -5227,10 +5274,11 @@
       <c r="W81" s="6"/>
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
-      <c r="Z81" s="8"/>
-      <c r="AA81" s="6"/>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="8"/>
+      <c r="AB81" s="6"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -5240,7 +5288,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="6"/>
+      <c r="J82" s="5"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
@@ -5256,10 +5304,11 @@
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
-      <c r="Z82" s="8"/>
-      <c r="AA82" s="6"/>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="8"/>
+      <c r="AB82" s="6"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -5269,7 +5318,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="6"/>
+      <c r="J83" s="5"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
@@ -5285,10 +5334,11 @@
       <c r="W83" s="6"/>
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
-      <c r="Z83" s="8"/>
-      <c r="AA83" s="6"/>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="8"/>
+      <c r="AB83" s="6"/>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -5298,7 +5348,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="6"/>
+      <c r="J84" s="5"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
@@ -5314,10 +5364,11 @@
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
-      <c r="Z84" s="8"/>
-      <c r="AA84" s="6"/>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="8"/>
+      <c r="AB84" s="6"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -5327,7 +5378,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="6"/>
+      <c r="J85" s="5"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
@@ -5343,10 +5394,11 @@
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
-      <c r="Z85" s="8"/>
-      <c r="AA85" s="6"/>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="8"/>
+      <c r="AB85" s="6"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -5356,7 +5408,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="6"/>
+      <c r="J86" s="5"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
@@ -5372,10 +5424,11 @@
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
-      <c r="Z86" s="8"/>
-      <c r="AA86" s="6"/>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="8"/>
+      <c r="AB86" s="6"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -5385,7 +5438,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="6"/>
+      <c r="J87" s="5"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
@@ -5401,10 +5454,11 @@
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
-      <c r="Z87" s="8"/>
-      <c r="AA87" s="6"/>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="6"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -5414,7 +5468,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="6"/>
+      <c r="J88" s="5"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
@@ -5430,10 +5484,11 @@
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
-      <c r="Z88" s="8"/>
-      <c r="AA88" s="6"/>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="8"/>
+      <c r="AB88" s="6"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -5443,7 +5498,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="6"/>
+      <c r="J89" s="5"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
@@ -5459,10 +5514,11 @@
       <c r="W89" s="6"/>
       <c r="X89" s="6"/>
       <c r="Y89" s="6"/>
-      <c r="Z89" s="8"/>
-      <c r="AA89" s="6"/>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z89" s="6"/>
+      <c r="AA89" s="8"/>
+      <c r="AB89" s="6"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5472,7 +5528,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="6"/>
+      <c r="J90" s="5"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
@@ -5488,10 +5544,11 @@
       <c r="W90" s="6"/>
       <c r="X90" s="6"/>
       <c r="Y90" s="6"/>
-      <c r="Z90" s="8"/>
-      <c r="AA90" s="6"/>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="8"/>
+      <c r="AB90" s="6"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -5501,7 +5558,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
-      <c r="J91" s="6"/>
+      <c r="J91" s="5"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
@@ -5517,10 +5574,11 @@
       <c r="W91" s="6"/>
       <c r="X91" s="6"/>
       <c r="Y91" s="6"/>
-      <c r="Z91" s="8"/>
-      <c r="AA91" s="6"/>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="8"/>
+      <c r="AB91" s="6"/>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -5530,7 +5588,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
-      <c r="J92" s="6"/>
+      <c r="J92" s="5"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
@@ -5546,10 +5604,11 @@
       <c r="W92" s="6"/>
       <c r="X92" s="6"/>
       <c r="Y92" s="6"/>
-      <c r="Z92" s="8"/>
-      <c r="AA92" s="6"/>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z92" s="6"/>
+      <c r="AA92" s="8"/>
+      <c r="AB92" s="6"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -5559,7 +5618,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="6"/>
+      <c r="J93" s="5"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -5575,10 +5634,11 @@
       <c r="W93" s="6"/>
       <c r="X93" s="6"/>
       <c r="Y93" s="6"/>
-      <c r="Z93" s="8"/>
-      <c r="AA93" s="6"/>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z93" s="6"/>
+      <c r="AA93" s="8"/>
+      <c r="AB93" s="6"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -5588,7 +5648,7 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="6"/>
+      <c r="J94" s="5"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -5604,10 +5664,11 @@
       <c r="W94" s="6"/>
       <c r="X94" s="6"/>
       <c r="Y94" s="6"/>
-      <c r="Z94" s="8"/>
-      <c r="AA94" s="6"/>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z94" s="6"/>
+      <c r="AA94" s="8"/>
+      <c r="AB94" s="6"/>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -5617,7 +5678,7 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="6"/>
+      <c r="J95" s="5"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
@@ -5633,10 +5694,11 @@
       <c r="W95" s="6"/>
       <c r="X95" s="6"/>
       <c r="Y95" s="6"/>
-      <c r="Z95" s="8"/>
-      <c r="AA95" s="6"/>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z95" s="6"/>
+      <c r="AA95" s="8"/>
+      <c r="AB95" s="6"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -5646,7 +5708,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="6"/>
+      <c r="J96" s="5"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
@@ -5662,10 +5724,11 @@
       <c r="W96" s="6"/>
       <c r="X96" s="6"/>
       <c r="Y96" s="6"/>
-      <c r="Z96" s="8"/>
-      <c r="AA96" s="6"/>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z96" s="6"/>
+      <c r="AA96" s="8"/>
+      <c r="AB96" s="6"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -5675,7 +5738,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="6"/>
+      <c r="J97" s="5"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
@@ -5691,10 +5754,11 @@
       <c r="W97" s="6"/>
       <c r="X97" s="6"/>
       <c r="Y97" s="6"/>
-      <c r="Z97" s="8"/>
-      <c r="AA97" s="6"/>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z97" s="6"/>
+      <c r="AA97" s="8"/>
+      <c r="AB97" s="6"/>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5704,7 +5768,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="6"/>
+      <c r="J98" s="5"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
@@ -5720,10 +5784,11 @@
       <c r="W98" s="6"/>
       <c r="X98" s="6"/>
       <c r="Y98" s="6"/>
-      <c r="Z98" s="8"/>
-      <c r="AA98" s="6"/>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z98" s="6"/>
+      <c r="AA98" s="8"/>
+      <c r="AB98" s="6"/>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -5733,7 +5798,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="6"/>
+      <c r="J99" s="5"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
@@ -5749,10 +5814,11 @@
       <c r="W99" s="6"/>
       <c r="X99" s="6"/>
       <c r="Y99" s="6"/>
-      <c r="Z99" s="8"/>
-      <c r="AA99" s="6"/>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z99" s="6"/>
+      <c r="AA99" s="8"/>
+      <c r="AB99" s="6"/>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -5762,7 +5828,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="6"/>
+      <c r="J100" s="5"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
@@ -5778,8 +5844,9 @@
       <c r="W100" s="6"/>
       <c r="X100" s="6"/>
       <c r="Y100" s="6"/>
-      <c r="Z100" s="8"/>
-      <c r="AA100" s="6"/>
+      <c r="Z100" s="6"/>
+      <c r="AA100" s="8"/>
+      <c r="AB100" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -5789,13 +5856,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="802" yWindow="359" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="브랜드이름이 잘못되었습니다." promptTitle="브랜드이름은 지정되어있습니다. " prompt="아래쪽 유효성 시트에 있는 브랜드이름(대문자,소문자, 공백포함까지 맞아야함.)이 없으면 입력할 수 없습니다. _x000a_옳바른 브랜드이름은 복붙이 가능합니다." xr:uid="{2E439DC7-096A-48AE-9A4B-51E8EBDFBA64}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="브랜드이름이 잘못되었습니다." promptTitle="브랜드이름은 지정되어있습니다. " prompt="아래쪽 유효성 시트에 있는 브랜드이름(대문자,소문자, 공백포함까지 맞아야함.)이 없으면 입력할 수 없습니다. _x000a_옳바른 브랜드이름은 복붙이 가능합니다.">
           <x14:formula1>
             <xm:f>유효성!$A$2:$A$29</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="카테고리가 옳바르지 않습니다." error="목록에 있는것만 선택하세요" promptTitle="카테고리를 옳바르게 입력바랍니다." prompt="브랜드와 마찬가지로 카테고리도 아래 유효성 시트의 목록에 있는것만 선택가능합니다. _x000a_옳바르면 복붙 가능합니다." xr:uid="{D22D0401-A16E-4238-A79B-8BC615FF437E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="카테고리가 옳바르지 않습니다." error="목록에 있는것만 선택하세요" promptTitle="카테고리를 옳바르게 입력바랍니다." prompt="브랜드와 마찬가지로 카테고리도 아래 유효성 시트의 목록에 있는것만 선택가능합니다. _x000a_옳바르면 복붙 가능합니다.">
           <x14:formula1>
             <xm:f>유효성!$B$2:$B$7</xm:f>
           </x14:formula1>
@@ -5808,7 +5875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/staff/data/product.xlsx
+++ b/staff/data/product.xlsx
@@ -1,35 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\django\staff\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495387BD-A8BB-4127-A91D-D4077705B6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="2" r:id="rId1"/>
     <sheet name="유효성" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Product!$A$1:$AA$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Product!$A$1:$AB$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LGD</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -489,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -567,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -742,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -830,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="156">
   <si>
     <t>상품관리용코드</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1341,10 +1335,6 @@
   </si>
   <si>
     <t>bag</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kids</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1832,9 +1822,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
     <t>asdassccczxcxz</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1870,11 +1857,22 @@
 CB014R852-8011</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>합배송</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kid</t>
+  </si>
+  <si>
+    <t>kid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2649,7 +2647,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2682,26 +2680,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2734,23 +2715,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2926,11 +2890,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB100"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2943,13 +2907,14 @@
     <col min="6" max="6" width="4.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="19" max="25" width="12.75" customWidth="1"/>
-    <col min="26" max="26" width="9.875" customWidth="1"/>
-    <col min="27" max="27" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="20" max="26" width="12.75" customWidth="1"/>
+    <col min="27" max="27" width="9.875" customWidth="1"/>
+    <col min="28" max="28" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2975,75 +2940,78 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="AA1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="5">
         <v>3300000</v>
@@ -3052,30 +3020,32 @@
         <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -3086,25 +3056,26 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="5">
         <v>3300000</v>
@@ -3113,27 +3084,29 @@
         <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -3145,25 +3118,26 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="5">
         <v>1040000</v>
@@ -3172,30 +3146,32 @@
         <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
@@ -3206,25 +3182,26 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E5" s="5">
         <v>3500000</v>
@@ -3233,24 +3210,26 @@
         <v>18</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -3263,21 +3242,22 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="6"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="6"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="E6" s="5">
         <v>5500000</v>
@@ -3286,24 +3266,26 @@
         <v>18</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -3316,21 +3298,22 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="6"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="6"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="5">
         <v>4000000</v>
@@ -3339,18 +3322,20 @@
         <v>18</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -3365,23 +3350,24 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA7" s="6"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB7" s="6"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="5">
         <v>2508000</v>
@@ -3390,24 +3376,26 @@
         <v>18</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -3420,21 +3408,22 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="6"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="6"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="5">
         <v>1290000</v>
@@ -3443,27 +3432,29 @@
         <v>18</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -3475,23 +3466,24 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
-      <c r="Z9" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA9" s="6"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB9" s="6"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="5">
         <v>1300000</v>
@@ -3500,27 +3492,29 @@
         <v>18</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>140</v>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>140</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="N10" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -3532,23 +3526,24 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
-      <c r="Z10" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA10" s="6"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB10" s="6"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E11" s="5">
         <v>300000</v>
@@ -3557,27 +3552,29 @@
         <v>18</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -3589,12 +3586,13 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
-      <c r="Z11" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA11" s="6"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB11" s="6"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3604,7 +3602,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -3620,10 +3618,11 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="6"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="6"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3633,7 +3632,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -3649,10 +3648,11 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="6"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="6"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3662,7 +3662,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -3678,10 +3678,11 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="6"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="6"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3691,7 +3692,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -3707,10 +3708,11 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="6"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3720,7 +3722,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -3736,10 +3738,11 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="6"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="6"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3749,7 +3752,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -3765,10 +3768,11 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="6"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="6"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3777,7 +3781,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -3793,10 +3797,11 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="6"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3806,7 +3811,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -3822,10 +3827,11 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="6"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="6"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -3835,7 +3841,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -3851,10 +3857,11 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="6"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="6"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3864,7 +3871,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -3880,10 +3887,11 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="6"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="6"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3893,7 +3901,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -3909,10 +3917,11 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="6"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="6"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3922,7 +3931,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -3938,10 +3947,11 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="6"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="6"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3951,7 +3961,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -3967,10 +3977,11 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="6"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="6"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3980,7 +3991,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -3996,10 +4007,11 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="6"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="6"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -4009,7 +4021,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -4025,10 +4037,11 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="6"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="6"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4038,7 +4051,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -4054,10 +4067,11 @@
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="6"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="6"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4067,7 +4081,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -4083,10 +4097,11 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="6"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="6"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4096,7 +4111,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -4112,10 +4127,11 @@
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="6"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="6"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4125,7 +4141,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -4141,10 +4157,11 @@
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="6"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="6"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4154,7 +4171,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -4170,10 +4187,11 @@
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="6"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="6"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4183,7 +4201,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -4199,10 +4217,11 @@
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="6"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="6"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -4212,7 +4231,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="6"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
@@ -4228,10 +4247,11 @@
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="6"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="6"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4241,7 +4261,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -4257,10 +4277,11 @@
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="6"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="6"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4270,7 +4291,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -4286,10 +4307,11 @@
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="6"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="6"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4299,7 +4321,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -4315,10 +4337,11 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="6"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="6"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4328,7 +4351,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -4344,10 +4367,11 @@
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="6"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="6"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -4357,7 +4381,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -4373,10 +4397,11 @@
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="6"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="6"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -4386,7 +4411,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
@@ -4402,10 +4427,11 @@
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="6"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="6"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4415,7 +4441,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="6"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
@@ -4431,10 +4457,11 @@
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="6"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="6"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4444,7 +4471,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -4460,10 +4487,11 @@
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="6"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="6"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4473,7 +4501,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="6"/>
+      <c r="J42" s="5"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -4489,10 +4517,11 @@
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="6"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="6"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4502,7 +4531,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="6"/>
+      <c r="J43" s="5"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -4518,10 +4547,11 @@
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="6"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="6"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4531,7 +4561,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="6"/>
+      <c r="J44" s="5"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -4547,10 +4577,11 @@
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="6"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="6"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4560,7 +4591,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="6"/>
+      <c r="J45" s="5"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -4576,10 +4607,11 @@
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="6"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="6"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4589,7 +4621,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="6"/>
+      <c r="J46" s="5"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -4605,10 +4637,11 @@
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="6"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="6"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4618,7 +4651,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="6"/>
+      <c r="J47" s="5"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
@@ -4634,10 +4667,11 @@
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="6"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="6"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4647,7 +4681,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="6"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -4663,10 +4697,11 @@
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="6"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="6"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4676,7 +4711,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="6"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -4692,10 +4727,11 @@
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="6"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="6"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4705,7 +4741,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="6"/>
+      <c r="J50" s="5"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -4721,10 +4757,11 @@
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="6"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="6"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4734,7 +4771,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="6"/>
+      <c r="J51" s="5"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -4750,10 +4787,11 @@
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="6"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="6"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4763,7 +4801,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="6"/>
+      <c r="J52" s="5"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -4779,10 +4817,11 @@
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="6"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="6"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4792,7 +4831,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="6"/>
+      <c r="J53" s="5"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -4808,10 +4847,11 @@
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="6"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="6"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4821,7 +4861,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="6"/>
+      <c r="J54" s="5"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -4837,10 +4877,11 @@
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="6"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="6"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4850,7 +4891,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="6"/>
+      <c r="J55" s="5"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
@@ -4866,10 +4907,11 @@
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="6"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="6"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4879,7 +4921,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="6"/>
+      <c r="J56" s="5"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
@@ -4895,10 +4937,11 @@
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="6"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="6"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4908,7 +4951,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="6"/>
+      <c r="J57" s="5"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -4924,10 +4967,11 @@
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="6"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="6"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4937,7 +4981,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="6"/>
+      <c r="J58" s="5"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -4953,10 +4997,11 @@
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
-      <c r="Z58" s="8"/>
-      <c r="AA58" s="6"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="6"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -4966,7 +5011,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="6"/>
+      <c r="J59" s="5"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
@@ -4982,10 +5027,11 @@
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
-      <c r="Z59" s="8"/>
-      <c r="AA59" s="6"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="6"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -4995,7 +5041,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="6"/>
+      <c r="J60" s="5"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
@@ -5011,10 +5057,11 @@
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
       <c r="Y60" s="6"/>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="6"/>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="6"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -5024,7 +5071,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="6"/>
+      <c r="J61" s="5"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
@@ -5040,10 +5087,11 @@
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
-      <c r="Z61" s="8"/>
-      <c r="AA61" s="6"/>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="6"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -5053,7 +5101,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="6"/>
+      <c r="J62" s="5"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
@@ -5069,10 +5117,11 @@
       <c r="W62" s="6"/>
       <c r="X62" s="6"/>
       <c r="Y62" s="6"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="6"/>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="6"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -5082,7 +5131,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="6"/>
+      <c r="J63" s="5"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -5098,10 +5147,11 @@
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
-      <c r="Z63" s="8"/>
-      <c r="AA63" s="6"/>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="6"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -5111,7 +5161,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="6"/>
+      <c r="J64" s="5"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -5127,10 +5177,11 @@
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
       <c r="Y64" s="6"/>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="6"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="6"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -5140,7 +5191,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="6"/>
+      <c r="J65" s="5"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
@@ -5156,10 +5207,11 @@
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
-      <c r="Z65" s="8"/>
-      <c r="AA65" s="6"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="6"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -5169,7 +5221,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="6"/>
+      <c r="J66" s="5"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -5185,10 +5237,11 @@
       <c r="W66" s="6"/>
       <c r="X66" s="6"/>
       <c r="Y66" s="6"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="6"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="6"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -5198,7 +5251,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="6"/>
+      <c r="J67" s="5"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
@@ -5214,10 +5267,11 @@
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
-      <c r="Z67" s="8"/>
-      <c r="AA67" s="6"/>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="6"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -5227,7 +5281,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="6"/>
+      <c r="J68" s="5"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
@@ -5243,10 +5297,11 @@
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
-      <c r="Z68" s="8"/>
-      <c r="AA68" s="6"/>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="6"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -5256,7 +5311,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="6"/>
+      <c r="J69" s="5"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -5272,10 +5327,11 @@
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
-      <c r="Z69" s="8"/>
-      <c r="AA69" s="6"/>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="6"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -5285,7 +5341,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="6"/>
+      <c r="J70" s="5"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -5301,10 +5357,11 @@
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
-      <c r="Z70" s="8"/>
-      <c r="AA70" s="6"/>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z70" s="6"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="6"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -5314,7 +5371,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="6"/>
+      <c r="J71" s="5"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -5330,10 +5387,11 @@
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
-      <c r="Z71" s="8"/>
-      <c r="AA71" s="6"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="6"/>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -5343,7 +5401,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-      <c r="J72" s="6"/>
+      <c r="J72" s="5"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
@@ -5359,10 +5417,11 @@
       <c r="W72" s="6"/>
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
-      <c r="Z72" s="8"/>
-      <c r="AA72" s="6"/>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z72" s="6"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="6"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -5372,7 +5431,7 @@
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
-      <c r="J73" s="6"/>
+      <c r="J73" s="5"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
@@ -5388,10 +5447,11 @@
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
-      <c r="Z73" s="8"/>
-      <c r="AA73" s="6"/>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="6"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -5401,7 +5461,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="6"/>
+      <c r="J74" s="5"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
@@ -5417,10 +5477,11 @@
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
-      <c r="Z74" s="8"/>
-      <c r="AA74" s="6"/>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="6"/>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -5430,7 +5491,7 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="6"/>
+      <c r="J75" s="5"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
@@ -5446,10 +5507,11 @@
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="6"/>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="6"/>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -5459,7 +5521,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="6"/>
+      <c r="J76" s="5"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
@@ -5475,10 +5537,11 @@
       <c r="W76" s="6"/>
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
-      <c r="Z76" s="8"/>
-      <c r="AA76" s="6"/>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="8"/>
+      <c r="AB76" s="6"/>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -5488,7 +5551,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-      <c r="J77" s="6"/>
+      <c r="J77" s="5"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -5504,10 +5567,11 @@
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
-      <c r="Z77" s="8"/>
-      <c r="AA77" s="6"/>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="8"/>
+      <c r="AB77" s="6"/>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -5517,7 +5581,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="6"/>
+      <c r="J78" s="5"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
@@ -5533,10 +5597,11 @@
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
-      <c r="Z78" s="8"/>
-      <c r="AA78" s="6"/>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="6"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -5546,7 +5611,7 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
-      <c r="J79" s="6"/>
+      <c r="J79" s="5"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
@@ -5562,10 +5627,11 @@
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
-      <c r="Z79" s="8"/>
-      <c r="AA79" s="6"/>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="8"/>
+      <c r="AB79" s="6"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -5575,7 +5641,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
-      <c r="J80" s="6"/>
+      <c r="J80" s="5"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
@@ -5591,10 +5657,11 @@
       <c r="W80" s="6"/>
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
-      <c r="Z80" s="8"/>
-      <c r="AA80" s="6"/>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="8"/>
+      <c r="AB80" s="6"/>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -5604,7 +5671,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="6"/>
+      <c r="J81" s="5"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
@@ -5620,10 +5687,11 @@
       <c r="W81" s="6"/>
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
-      <c r="Z81" s="8"/>
-      <c r="AA81" s="6"/>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="8"/>
+      <c r="AB81" s="6"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -5633,7 +5701,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="6"/>
+      <c r="J82" s="5"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
@@ -5649,10 +5717,11 @@
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
-      <c r="Z82" s="8"/>
-      <c r="AA82" s="6"/>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="8"/>
+      <c r="AB82" s="6"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -5662,7 +5731,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="6"/>
+      <c r="J83" s="5"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
@@ -5678,10 +5747,11 @@
       <c r="W83" s="6"/>
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
-      <c r="Z83" s="8"/>
-      <c r="AA83" s="6"/>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="8"/>
+      <c r="AB83" s="6"/>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -5691,7 +5761,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="6"/>
+      <c r="J84" s="5"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
@@ -5707,10 +5777,11 @@
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
-      <c r="Z84" s="8"/>
-      <c r="AA84" s="6"/>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="8"/>
+      <c r="AB84" s="6"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -5720,7 +5791,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="6"/>
+      <c r="J85" s="5"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
@@ -5736,10 +5807,11 @@
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
-      <c r="Z85" s="8"/>
-      <c r="AA85" s="6"/>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="8"/>
+      <c r="AB85" s="6"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -5749,7 +5821,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="6"/>
+      <c r="J86" s="5"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
@@ -5765,10 +5837,11 @@
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
-      <c r="Z86" s="8"/>
-      <c r="AA86" s="6"/>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="8"/>
+      <c r="AB86" s="6"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -5778,7 +5851,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="6"/>
+      <c r="J87" s="5"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
@@ -5794,10 +5867,11 @@
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
-      <c r="Z87" s="8"/>
-      <c r="AA87" s="6"/>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="6"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -5807,7 +5881,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="6"/>
+      <c r="J88" s="5"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
@@ -5823,10 +5897,11 @@
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
-      <c r="Z88" s="8"/>
-      <c r="AA88" s="6"/>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="8"/>
+      <c r="AB88" s="6"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -5836,7 +5911,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="6"/>
+      <c r="J89" s="5"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
@@ -5852,10 +5927,11 @@
       <c r="W89" s="6"/>
       <c r="X89" s="6"/>
       <c r="Y89" s="6"/>
-      <c r="Z89" s="8"/>
-      <c r="AA89" s="6"/>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z89" s="6"/>
+      <c r="AA89" s="8"/>
+      <c r="AB89" s="6"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5865,7 +5941,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="6"/>
+      <c r="J90" s="5"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
@@ -5881,10 +5957,11 @@
       <c r="W90" s="6"/>
       <c r="X90" s="6"/>
       <c r="Y90" s="6"/>
-      <c r="Z90" s="8"/>
-      <c r="AA90" s="6"/>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="8"/>
+      <c r="AB90" s="6"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -5894,7 +5971,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
-      <c r="J91" s="6"/>
+      <c r="J91" s="5"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
@@ -5910,10 +5987,11 @@
       <c r="W91" s="6"/>
       <c r="X91" s="6"/>
       <c r="Y91" s="6"/>
-      <c r="Z91" s="8"/>
-      <c r="AA91" s="6"/>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="8"/>
+      <c r="AB91" s="6"/>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -5923,7 +6001,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
-      <c r="J92" s="6"/>
+      <c r="J92" s="5"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
@@ -5939,10 +6017,11 @@
       <c r="W92" s="6"/>
       <c r="X92" s="6"/>
       <c r="Y92" s="6"/>
-      <c r="Z92" s="8"/>
-      <c r="AA92" s="6"/>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z92" s="6"/>
+      <c r="AA92" s="8"/>
+      <c r="AB92" s="6"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -5952,7 +6031,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="6"/>
+      <c r="J93" s="5"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -5968,10 +6047,11 @@
       <c r="W93" s="6"/>
       <c r="X93" s="6"/>
       <c r="Y93" s="6"/>
-      <c r="Z93" s="8"/>
-      <c r="AA93" s="6"/>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z93" s="6"/>
+      <c r="AA93" s="8"/>
+      <c r="AB93" s="6"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -5981,7 +6061,7 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="6"/>
+      <c r="J94" s="5"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -5997,10 +6077,11 @@
       <c r="W94" s="6"/>
       <c r="X94" s="6"/>
       <c r="Y94" s="6"/>
-      <c r="Z94" s="8"/>
-      <c r="AA94" s="6"/>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z94" s="6"/>
+      <c r="AA94" s="8"/>
+      <c r="AB94" s="6"/>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -6010,7 +6091,7 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="6"/>
+      <c r="J95" s="5"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
@@ -6026,10 +6107,11 @@
       <c r="W95" s="6"/>
       <c r="X95" s="6"/>
       <c r="Y95" s="6"/>
-      <c r="Z95" s="8"/>
-      <c r="AA95" s="6"/>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z95" s="6"/>
+      <c r="AA95" s="8"/>
+      <c r="AB95" s="6"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -6039,7 +6121,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="6"/>
+      <c r="J96" s="5"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
@@ -6055,10 +6137,11 @@
       <c r="W96" s="6"/>
       <c r="X96" s="6"/>
       <c r="Y96" s="6"/>
-      <c r="Z96" s="8"/>
-      <c r="AA96" s="6"/>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z96" s="6"/>
+      <c r="AA96" s="8"/>
+      <c r="AB96" s="6"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -6068,7 +6151,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="6"/>
+      <c r="J97" s="5"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
@@ -6084,10 +6167,11 @@
       <c r="W97" s="6"/>
       <c r="X97" s="6"/>
       <c r="Y97" s="6"/>
-      <c r="Z97" s="8"/>
-      <c r="AA97" s="6"/>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z97" s="6"/>
+      <c r="AA97" s="8"/>
+      <c r="AB97" s="6"/>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -6097,7 +6181,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="6"/>
+      <c r="J98" s="5"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
@@ -6113,10 +6197,11 @@
       <c r="W98" s="6"/>
       <c r="X98" s="6"/>
       <c r="Y98" s="6"/>
-      <c r="Z98" s="8"/>
-      <c r="AA98" s="6"/>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z98" s="6"/>
+      <c r="AA98" s="8"/>
+      <c r="AB98" s="6"/>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -6126,7 +6211,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="6"/>
+      <c r="J99" s="5"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
@@ -6142,10 +6227,11 @@
       <c r="W99" s="6"/>
       <c r="X99" s="6"/>
       <c r="Y99" s="6"/>
-      <c r="Z99" s="8"/>
-      <c r="AA99" s="6"/>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z99" s="6"/>
+      <c r="AA99" s="8"/>
+      <c r="AB99" s="6"/>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -6155,7 +6241,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="6"/>
+      <c r="J100" s="5"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
@@ -6171,8 +6257,9 @@
       <c r="W100" s="6"/>
       <c r="X100" s="6"/>
       <c r="Y100" s="6"/>
-      <c r="Z100" s="8"/>
-      <c r="AA100" s="6"/>
+      <c r="Z100" s="6"/>
+      <c r="AA100" s="8"/>
+      <c r="AB100" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -6181,14 +6268,14 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="958" yWindow="482" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="브랜드이름이 잘못되었습니다." promptTitle="브랜드이름은 지정되어있습니다. " prompt="아래쪽 유효성 시트에 있는 브랜드이름(대문자,소문자, 공백포함까지 맞아야함.)이 없으면 입력할 수 없습니다. _x000a_옳바른 브랜드이름은 복붙이 가능합니다." xr:uid="{2E439DC7-096A-48AE-9A4B-51E8EBDFBA64}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="958" yWindow="482" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="브랜드이름이 잘못되었습니다." promptTitle="브랜드이름은 지정되어있습니다. " prompt="아래쪽 유효성 시트에 있는 브랜드이름(대문자,소문자, 공백포함까지 맞아야함.)이 없으면 입력할 수 없습니다. _x000a_옳바른 브랜드이름은 복붙이 가능합니다.">
           <x14:formula1>
             <xm:f>유효성!$A$2:$A$29</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="카테고리가 옳바르지 않습니다." error="목록에 있는것만 선택하세요" promptTitle="카테고리를 옳바르게 입력바랍니다." prompt="브랜드와 마찬가지로 카테고리도 아래 유효성 시트의 목록에 있는것만 선택가능합니다. _x000a_옳바르면 복붙 가능합니다." xr:uid="{D22D0401-A16E-4238-A79B-8BC615FF437E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="카테고리가 옳바르지 않습니다." error="목록에 있는것만 선택하세요" promptTitle="카테고리를 옳바르게 입력바랍니다." prompt="브랜드와 마찬가지로 카테고리도 아래 유효성 시트의 목록에 있는것만 선택가능합니다. _x000a_옳바르면 복붙 가능합니다.">
           <x14:formula1>
             <xm:f>유효성!$B$2:$B$7</xm:f>
           </x14:formula1>
@@ -6201,11 +6288,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6223,7 +6310,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -6231,7 +6318,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>20</v>
@@ -6239,7 +6326,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -6247,7 +6334,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -6255,7 +6342,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
@@ -6263,120 +6350,120 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
